--- a/data/georgia_census/imereti/sachxere/age_dependency.xlsx
+++ b/data/georgia_census/imereti/sachxere/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF506292-0E4D-46C2-BACB-3ED2263AE8CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{999D30F5-C72A-4747-ABC3-089157C26BF3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64AB7F3E-E8A3-4C5B-9674-61FE3603036E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBE5DCF-851C-422F-9175-A1B43EA511FA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE79E95-4558-4F21-BD95-90F4677F77C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABD76DD-3E86-4E74-9E46-DC5E0F5F6979}"/>
 </file>